--- a/data/trans_dic/IP18A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,94; 70,94</t>
+          <t>53,19; 70,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,16; 69,73</t>
+          <t>50,8; 69,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,62; 81,83</t>
+          <t>63,14; 82,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 77,68</t>
+          <t>19,95; 77,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,18; 66,69</t>
+          <t>47,46; 66,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,97; 70,47</t>
+          <t>52,87; 70,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,23; 77,83</t>
+          <t>58,75; 77,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,75; 84,89</t>
+          <t>25,98; 84,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 66,65</t>
+          <t>52,91; 65,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,1; 67,41</t>
+          <t>54,66; 67,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>64,58; 77,87</t>
+          <t>64,22; 77,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 73,18</t>
+          <t>29,94; 71,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,91; 70,19</t>
+          <t>62,96; 70,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,19; 71,27</t>
+          <t>64,48; 71,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,39; 68,58</t>
+          <t>61,58; 69,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,53; 41,77</t>
+          <t>23,47; 40,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,9; 70,61</t>
+          <t>62,83; 70,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,74; 69,16</t>
+          <t>61,82; 68,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,79; 70,05</t>
+          <t>62,83; 70,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,63; 48,46</t>
+          <t>27,35; 48,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,99; 69,11</t>
+          <t>64,05; 69,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64,05; 69,37</t>
+          <t>63,77; 69,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63,28; 68,4</t>
+          <t>63,15; 68,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 40,93</t>
+          <t>27,71; 40,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,93; 66,4</t>
+          <t>52,03; 65,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,7; 68,69</t>
+          <t>56,32; 68,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,92; 66,62</t>
+          <t>54,73; 66,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 40,22</t>
+          <t>12,44; 40,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,48; 62,49</t>
+          <t>49,19; 62,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,23; 72,0</t>
+          <t>59,6; 72,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,85; 65,35</t>
+          <t>52,44; 65,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,35; 44,02</t>
+          <t>16,35; 43,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,35; 61,91</t>
+          <t>52,46; 61,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,6; 68,74</t>
+          <t>59,82; 68,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,73; 64,55</t>
+          <t>55,77; 64,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 38,57</t>
+          <t>17,7; 36,84</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,8; 67,14</t>
+          <t>61,29; 67,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,94; 68,78</t>
+          <t>62,5; 68,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,75; 68,13</t>
+          <t>61,71; 67,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,99; 39,27</t>
+          <t>24,18; 38,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,57; 65,68</t>
+          <t>59,72; 66,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,1; 67,96</t>
+          <t>62,14; 68,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,06; 68,18</t>
+          <t>62,01; 68,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,7; 45,59</t>
+          <t>27,69; 44,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,35; 65,9</t>
+          <t>61,28; 65,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,1; 67,45</t>
+          <t>63,55; 67,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62,69; 67,16</t>
+          <t>62,66; 66,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,14; 39,1</t>
+          <t>28,27; 38,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A03-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,78%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>47,18; 66,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>52,93; 70,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,07; 78,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,62; 85,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,58; 70,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,68; 69,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,88; 81,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,21; 76,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>53,54; 66,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>54,63; 67,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,24; 78,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,6; 73,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>65,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>66,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,6%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,08%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,85%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>66,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>66,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>65,92%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>34,79%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,19; 70,39</t>
+          <t>62,53; 70,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,8; 69,75</t>
+          <t>61,36; 69,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,14; 82,36</t>
+          <t>62,64; 70,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 77,11</t>
+          <t>27,7; 49,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,46; 66,94</t>
+          <t>63,2; 70,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,87; 70,2</t>
+          <t>64,12; 71,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,75; 77,82</t>
+          <t>61,25; 68,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,98; 84,93</t>
+          <t>24,12; 42,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,91; 65,9</t>
+          <t>63,81; 69,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,66; 67,24</t>
+          <t>64,15; 69,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>64,22; 77,88</t>
+          <t>63,17; 68,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,94; 71,78</t>
+          <t>28,06; 42,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>55,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,26%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,59%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,73%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>27,5%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,96; 70,19</t>
+          <t>48,78; 61,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,48; 71,45</t>
+          <t>60,29; 73,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,58; 69,09</t>
+          <t>53,07; 65,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,47; 40,18</t>
+          <t>17,62; 44,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,83; 70,56</t>
+          <t>51,51; 65,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,82; 68,94</t>
+          <t>55,96; 68,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,83; 70,11</t>
+          <t>54,36; 67,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,35; 48,13</t>
+          <t>12,69; 40,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,05; 69,57</t>
+          <t>52,87; 61,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,77; 69,22</t>
+          <t>60,31; 69,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63,15; 68,36</t>
+          <t>55,98; 64,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,71; 40,63</t>
+          <t>17,81; 38,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>65,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>34,19%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,03; 65,63</t>
+          <t>59,51; 65,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,32; 68,77</t>
+          <t>62,23; 68,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,73; 66,7</t>
+          <t>62,1; 68,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 40,42</t>
+          <t>29,25; 45,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,19; 62,79</t>
+          <t>61,39; 67,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,6; 72,44</t>
+          <t>63,0; 68,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,44; 65,89</t>
+          <t>61,87; 67,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 43,67</t>
+          <t>25,06; 39,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,46; 61,52</t>
+          <t>61,4; 65,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,82; 68,89</t>
+          <t>63,37; 67,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,77; 64,55</t>
+          <t>62,88; 67,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 36,84</t>
+          <t>28,45; 40,44</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>64,36%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>65,83%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>64,89%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,19%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>62,81%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>65,22%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>65,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>36,15%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>63,6%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>65,53%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>64,98%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>33,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>61,29; 67,5</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>62,5; 68,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>61,71; 67,62</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>24,18; 38,65</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>59,72; 66,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>62,14; 68,27</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>62,01; 68,0</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>27,69; 44,09</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>61,28; 65,72</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>63,55; 67,55</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>62,66; 66,97</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>28,27; 38,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
